--- a/biology/Médecine/Syndrome_de_Cockayne/Syndrome_de_Cockayne.xlsx
+++ b/biology/Médecine/Syndrome_de_Cockayne/Syndrome_de_Cockayne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Cockayne (SC) est une maladie héréditaire caractérisée par une croissance insuffisante de la taille et/ou du poids au moment du développement de l’enfant. On constate également chez les sujets atteints une dysmorphie faciale, une sensibilité anormalement importante à la lumière, des troubles neurologiques progressifs et un retard mental. Il y a environ un cas sur 200 000 dans les pays européens. En fonction des patients, la maladie peut se déclencher plus ou moins tôt, et être plus ou moins importante. Appelée également nanisme progéroïde, elle ressemble au syndrome de la progéria qui donne aux enfants qui en sont atteints l’aspect d’une personne âgée. Cela est dû à une fonte du tissu graisseux de la peau.
 </t>
@@ -511,7 +523,9 @@
           <t>Signes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes les plus fréquents de la maladie sont un retard de croissance progressif et un déficit intellectuel. La position debout immobile et pendant la marche est instable, rappelant celle d'une personne en état d'ivresse. De plus, les personnes atteintes ont leurs muscles contractés d'une manière anormalement constante. Les nerfs périphériques et la rétine sont souvent atteints. On constate également souvent une surdité et des problèmes dentaires, notamment des caries.
 Les anomalies morphologiques des patients peuvent entrainer des troubles de la croissance crânienne. Le crâne est donc parfois de taille inférieure à la moyenne. Les oreilles sont larges, le nez fin et les globes oculaires enfoncés dans les orbites. Une cataracte et une photosensibilité cutanée sont observées chez certains patients. Une diminution du tissu graisseux sous-cutané entraîne un aspect de vieillissement cutané prématuré.
@@ -543,7 +557,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le spectre clinique montre une grande variabilité dans la sévérité et l'âge d'apparition des manifestations.
 La forme du SC la plus fréquente (type I) se manifeste durant la première année de vie. Des cas de début plus précoce avec des symptômes plus sévères (type II) et des cas de début plus tardif avec des symptômes plus modérés (type III) ont également été décrits.
@@ -579,7 +595,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Cockayne (SC) est dû à l’altération d’un gène. Le SC appartient, comme le xeroderma pigmentosum et la trichothiodystrophie, au groupe de maladies qui affectent la réparation de l'ADN par excision de nucléotides (NER).
 En effet le gène altéré intervient dans la réparation de l’ADN lorsqu’il a subi des lésions à la suite d'une exposition aux rayons ultraviolets. Les cellules révèlent une altération spécifique de la voie de réparation couplée avec la transcription (TCR : transcription coupled repair). D'autres altérations dans la transcription basale ou dans la réparation oxydative ont également été suggérées pour expliquer les symptômes non-cutanés du SC. Des mutations ont été identifiées au niveau des gènes ERCC6 (CSB; 10q11 deux tiers des cas) et ERCC8 (CSA; 5q12.1 un tiers des cas). Le gène ERCC6 se trouve sur le chromosome 10 et donne lieu à une protéine appelée CSB (Cockayne syndrome B). Le gène ERCC8 est situé sur le chromosome 5 et aboutit à la protéine CSA (Cockayne syndrome A).
@@ -614,7 +632,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Cockayne affecte 1 personne sur 200 000.
 </t>
@@ -645,7 +665,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Cockayne a été mis en évidence en 1936 par Edward Alfred Cockayne (en) (1880-1956), un médecin anglais qui s'est consacré à l'étude des maladies héréditaires sur les enfants.
 </t>
@@ -676,7 +698,9 @@
           <t>Description clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement, au cours de la deuxième année, on constate chez les malades une cassure au niveau de la courbe de croissance, accompagnée d’une dégradation de l’état général.
 Le visage est facilement reconnaissable. Le nez est étroit, les mâchoires petites et les yeux enfoncés.
@@ -714,23 +738,165 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Le syndrome de Cockayne est une maladie rare qui est souvent confondue avec d’autres maladies. En effet, des retards neurologiques peuvent être dues à la toxoplasmose ou à la rubéole contractées par la mère pendant la grossesse. La sensibilité à la lumière peut faire penser à la maladie xeroderma pigmentosum. Le fait d'être de petite taille et de subir un vieillissement prématuré rappelle les symptômes de la progeria, du syndrome de Bloom ou de Werner.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Cockayne est une maladie rare qui est souvent confondue avec d’autres maladies. En effet, des retards neurologiques peuvent être dues à la toxoplasmose ou à la rubéole contractées par la mère pendant la grossesse. La sensibilité à la lumière peut faire penser à la maladie xeroderma pigmentosum. Le fait d'être de petite taille et de subir un vieillissement prématuré rappelle les symptômes de la progeria, du syndrome de Bloom ou de Werner.
 La série de tests décrite et surtout les tests génétiques et de réparation de l’ADN sont indispensables au diagnostic du SC.
-Diagnostic préimplantatoire (DPI)
-Le DPI consiste à rechercher le problème génétique qui est responsable de la maladie sur des embryons obtenus par fécondation in vitro. On analyse donc chaque embryon puis on sélectionne ceux qui ne sont pas porteurs de l’anomalie génétique. Ensuite on implante quelques embryons sains dans l'utérus de la femme. Le recours à une procréation médicalement assistée est donc indispensable, malgré le fait qu'elle ne soit pas sans risque.
-Diagnostic prénatal (DPN)
-Dans le cas où un couple a déjà eu un enfant atteint du syndrome de Cockayne, ou si l’un des deux parents est lui-même atteint on fait un diagnostic prénatal (DPN). Pour cela, il faut que l’anomalie génétique ait été identifiée. Le DPN permet de savoir au moment de la grossesse si l’enfant sera atteint ou non. On mesure le taux de réparation de l’ADN ou on recherche l’anomalie génétique sur des cellules prélevées en début de grossesse au niveau du futur placenta ou du liquide amniotique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Diagnostic préimplantatoire (DPI)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le DPI consiste à rechercher le problème génétique qui est responsable de la maladie sur des embryons obtenus par fécondation in vitro. On analyse donc chaque embryon puis on sélectionne ceux qui ne sont pas porteurs de l’anomalie génétique. Ensuite on implante quelques embryons sains dans l'utérus de la femme. Le recours à une procréation médicalement assistée est donc indispensable, malgré le fait qu'elle ne soit pas sans risque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal (DPN)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas où un couple a déjà eu un enfant atteint du syndrome de Cockayne, ou si l’un des deux parents est lui-même atteint on fait un diagnostic prénatal (DPN). Pour cela, il faut que l’anomalie génétique ait été identifiée. Le DPN permet de savoir au moment de la grossesse si l’enfant sera atteint ou non. On mesure le taux de réparation de l’ADN ou on recherche l’anomalie génétique sur des cellules prélevées en début de grossesse au niveau du futur placenta ou du liquide amniotique.
 Ces examens entraînent chacun un risque de fausse couche, plus ou moins important selon la technique de prélèvement. Ils sont réalisés sous échographie et aucun prélèvement n’est réalisé directement sur le fœtus.
 Le résultat est connu en une ou deux semaines. Il est extrêmement important que les parents qui souhaitent avoir recours à ce diagnostic puissent discuter à plusieurs reprises avec une équipe de spécialistes afin de préciser leur demande exacte, d’être informés sur les avancées de prise en charge de cette maladie, et de prendre une décision éclairée concernant une éventuelle interruption de grossesse.
-Diagnostic postnatal
-Le diagnostic a le plus souvent lieu après la naissance, lorsque les premiers signes de la maladie apparaissent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Diagnostic postnatal</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic a le plus souvent lieu après la naissance, lorsque les premiers signes de la maladie apparaissent.
 Il repose sur la mise en évidence d'un défaut spécifique de la transcription par la mesure de la synthèse d'ARN ou réparation de l’ADN, dans les cellules de la peau (fibroblastes) en culture après irradiation aux UV. Le test de la réparation de l'ADN est indispensable pour le diagnostic du SC.
 Pour récupérer ces cellules de peau, les médecins réalisent une biopsie. Il s’agit d’un prélèvement des cellules grâce à un petit cylindre. Lors de la biopsie le patient est sous anesthésie locale, et ne ressent aucune douleur. Si l’enfant est atteint par le SC on observera un taux de réparation de l’ADN inférieur à la moyenne.
 Il est possible de vérifier l’altération des gènes ERCC6 et ERCC8 grâce à un test génétique. Pour réaliser ce test, il suffit de donner un échantillon de sang à un établissement spécialisé dans ce type de test.
-Évaluation des déficiences
-Pour détecter le syndrome de Cockayne, on peut avoir recours à plusieurs tests complémentaires qui permettent d’évaluer les déficiences du patient afin de mieux adapter les prises en charge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Évaluation des déficiences</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pour détecter le syndrome de Cockayne, on peut avoir recours à plusieurs tests complémentaires qui permettent d’évaluer les déficiences du patient afin de mieux adapter les prises en charge.
 L'électromyogramme permet d'enregistrer les courants électriques qui accompagnant l'activité musculaire. Il met en évidence le niveau d’atteinte des neurones ainsi que la dégénérescence de la myéline.
 L'utilisation du scanner permet de mettre en évidence les calcifications des noyaux gris centraux du cerveau ainsi que le manque de myélinisation de la substance blanche. Il utilise les rayons X comme les appareils de radiologie classique mais les informations sont directement traitées par ordinateur. Ce test dure entre trente minutes et une heure.
 L'IRM permet de montrer l’accumulation de substance constituée de cholestérol et de triglycérides dans le tissu nerveux ainsi qu'un sous-développement du cerveau. Elle est sans danger, indolore et n'utilise pas de rayons X.
@@ -741,31 +907,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Cockayne</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cockayne</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Traitement et Prise en charge</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'existe hélas pas pour l'instant de traitement permettant de guérir les malades. On traite donc les symptômes les uns après les autres.
 La kinésithérapie, une protection solaire, et un appareillage auditif sont très souvent indispensables. Des visites régulières chez le dentiste et une rééducation psychomotrice doivent très souvent avoir lieu. Il est nécessaire de veiller à l'alimentation de l'enfant. Parfois, si l'enfant ne mange pas assez une opération peut être recommandée.
@@ -774,31 +942,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Cockayne</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cockayne</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Cockayne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">La transmission est autosomique récessive. Le terme « autosomique » signifie que le gène responsable de la maladie ne se trouve pas sur les chromosomes sexuels, la maladie peut se transmettre aussi bien aux filles qu’aux garçons. Nous avons chacun deux copies de chaque gène l’une transmise par notre mère, l’autre par notre père. La récessivité est le fait que les deux parents doivent donner le gène altéré pour que l’enfant souffre de la maladie. Si l’enfant n’a qu’une seule copie du gène altéré, il ne souffre pas de la maladie.
 </t>
